--- a/biology/Botanique/Amphibromus_scabrivalvis/Amphibromus_scabrivalvis.xlsx
+++ b/biology/Botanique/Amphibromus_scabrivalvis/Amphibromus_scabrivalvis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphibromus scabrivalvis est une espèce de plantes monocotylédones de la famille des Poaceae,  sous-famille des Pooideae, originaire d'Amérique du Sud.
 Ce sont des plantes herbacées vivaces, aux tiges (chaumes) dressées pouvant atteindre un mètre de haut.
-Les gaines foliaires basales, épaissies, forment une sorte de bulbe. L'inflorescence est une panicule[2].
+Les gaines foliaires basales, épaissies, forment une sorte de bulbe. L'inflorescence est une panicule.
 </t>
         </is>
       </c>
@@ -515,15 +527,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (3 décembre 2017)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 décembre 2017) :
 Amphibromus scabrivalvis var. indigestus Nicora
 Avena scabrivalvis Trin.
 Bromus gilliesii Nees
 Bromus holciformis Steud.
-Helictotrichon scabrivalve (Trin.) G.C.Tucker
-Liste des variétés
-Selon Tropicos                                           (3 décembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Helictotrichon scabrivalve (Trin.) G.C.Tucker</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amphibromus_scabrivalvis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphibromus_scabrivalvis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Amphibromus scabrivalvis var. indigestus Nicora
 Amphibromus scabrivalvis var. scabrivalvis</t>
         </is>
